--- a/data/EstadoGrilla.xlsx
+++ b/data/EstadoGrilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta StreamLit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4F3BD-D1CD-4BB5-8193-F0A47F83A753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2700800D-DC57-4BE2-9FFB-A61ED4543024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{41BA2F4C-9E74-4999-AB1E-0ADCF52F8F98}"/>
   </bookViews>
@@ -619,7 +619,7 @@
   <dimension ref="A1:I536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
